--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Enrolment in early childhood education in the year before full time school, by Indigenous status and State/Territory, 2015 (per cent)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">Enrolment in early childhood education in the year before full time school, by Indigenous status and State/Territory (per cent)</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Baseline for target</t>
+    <t xml:space="preserve">On Track</t>
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
@@ -89,38 +89,41 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">The original target to ensure access for all Indigenous four-year-olds in remote communities to early childhood education expired unmet. In December 2015, COAG renewed the early childhood education target, aiming for 95 per cent of all Indigenous four year-olds enrolled in preschool by 2025. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The baseline for this target is 2015. In 2015, 87 per cent of Indigenous children were enrolled in early childhood education in the year before full time school, compared to the target benchmark of 95 per cent. Data to measure progress against this target will become available next year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2015, the information available suggests that all Indigenous and non-Indigenous children were enrolled in early childhood education in the year before full time school in Western Australia, South Australia and the Australian Capital Territory. Early childhood education enrolment rates for Indigenous children in the other states and territories were below the required benchmark of 95 per cent, although Victoria and Tasmania were very close.</t>
+    <t xml:space="preserve">In December 2015, COAG renewed the early childhood education target aiming for 95 per cent of all Indigenous four year-olds enrolled in preschool by 2025. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The baseline for this target is 2015. In 2016, 91 per cent of Indigenous children were enrolled in early childhood education in the year before full time school, compared to 87 per cent in the baseline year. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2016, the information available suggests that all Indigenous children were enrolled in early childhood education in the year before full time school in Victoria, Western Australia and South Australia. Tasmania and the Australian Capital Territory met the required benchmark of 95 per cent.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Proportions are over 100 per cent but displayed as 100 per cent for the following: Indigenous children in WA (105 per cent); SA (112 per cent); and ACT (124 per cent). Non-Indigenous children in Vic. (103 per cent); QLD (108 per cent); WA (101 per cent); SA (103 per cent); Tas. (102 per cent); ACT (109 per cent); and NT (106 per cent).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A revised method was developed to address numerator and denominator misalignment for age and location, removing children already in school from the denominator, and adjusting for Indigenous status not stated. It is considered a significant improvement, but there are some further potential sources of difference between the early childhood education numerators and the population denominators that may impact on the accuracy of the estimates and further refinement may be required.</t>
+    <t xml:space="preserve">Proportions are over 100 per cent but displayed as 100 per cent for the following: In 2016, Indigenous children in Vic (102 per cent); WA (103 per cent); SA (104 per cent). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improved data quality in the 2016 NECECC collection, resulting from revisions to the ABS data collection methodology, mean that the 2016 data are not fully comparable to the 2015 data. Siginificant changes affecting the 2016 data include:
+- the ABS has amended its data linkage approach to enhace the accuracy of child counts in NECECC, and
+- an expanded child identification strategy in the Child Care Management System (one of the source datasets) has increased the count of children enrolled in a preschool program, as all children at long day care centres (of the appropraite age) are now recorded as enrolled in a preschool program.</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS unpublished, Preschool Education, Australia 2015; Australian Demographic Statistics, June 2015; Births, Australia, 2015; Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026; Schools, Australia 2015</t>
+    <t xml:space="preserve">ABS (unpublished), Preschool Education, Australia 2015; Australian Demographic Statistics, June 2015; Births, Australia, 2015; Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026; Schools, Australia 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,87 +144,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -245,6 +167,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -257,57 +186,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF00000A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -315,23 +202,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,61 +227,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,7 +249,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -425,57 +257,49 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -487,7 +311,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -503,7 +327,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -530,25 +354,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -583,7 +407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2015</v>
       </c>
@@ -618,7 +442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2015</v>
       </c>
@@ -651,6 +475,76 @@
       </c>
       <c r="K4" s="0" t="n">
         <v>98</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>85.8936040457776</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>87.7376227282223</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>96.5280593637805</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>95.8333333333333</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>82.3194803440633</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>91.026474354955</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>84.830030110575</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>98.2905809848454</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>94.3571140669085</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>95.6244293898984</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>93.7232477938939</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>96.1610185175074</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>98.4203873860724</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>98.7670093348421</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>92.4548839908481</v>
       </c>
     </row>
   </sheetData>
@@ -669,89 +563,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="7" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="86.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="72.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
     </row>

--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Enrolment in early childhood education in the year before full time school, by Indigenous status and State/Territory (per cent)</t>
   </si>
@@ -104,7 +104,10 @@
     <t xml:space="preserve">Proportions are over 100 per cent but displayed as 100 per cent for the following: In 2016, Indigenous children in Vic (102 per cent); WA (103 per cent); SA (104 per cent). </t>
   </si>
   <si>
-    <t xml:space="preserve">Improved data quality in the 2016 NECECC collection, resulting from revisions to the ABS data collection methodology, mean that the 2016 data are not fully comparable to the 2015 data. Siginificant changes include: amended to data linkage approach to enhace the accuracy of child counts in NECECC, and an expanded child identification strategy in the Child Care Management System (one of the source datasets) has increased the count of children enrolled in a preschool program, as all children at long day care centres (of the appropraite age) are now recorded as enrolled in a preschool program.</t>
+    <t xml:space="preserve">Improved data quality in the 2016 NECECC collection, resulting from revisions to the ABS data collection methodology, mean that the 2016 data are not fully comparable to the 2015 data. Significant changes include: amended to data linkage approach to enhace the accuracy of child counts in NECECC, and an expanded child identification strategy in the Child Care Management System (one of the source datasets) has increased the count of children enrolled in a preschool program, as all children at long day care centres (of the appropriate age) are now recorded as enrolled in a preschool program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preschool enrolment rates reported under the National Partnership on Universal Access to Preschool vary from the NIRA ECE rates. The NIRA and ROGS enrolment rates are based on state-specific Year Before Full-Time School enrolment rates, the NIRA data also prorates Indigenous status not stated.</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
@@ -121,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,6 +185,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,14 +248,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,10 +260,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +273,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,7 +340,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -480,72 +481,72 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="2" t="n">
         <v>85.8936040457776</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>87.7376227282223</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="F5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>96.5280593637805</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="2" t="n">
         <v>95.8333333333333</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="2" t="n">
         <v>82.3194803440633</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="2" t="n">
         <v>91.026474354955</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2" t="n">
         <v>84.830030110575</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="2" t="n">
         <v>98.2905809848454</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>94.3571140669085</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>95.6244293898984</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="2" t="n">
         <v>93.7232477938939</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="2" t="n">
         <v>96.1610185175074</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="2" t="n">
         <v>98.4203873860724</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="2" t="n">
         <v>98.7670093348421</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="2" t="n">
         <v>92.4548839908481</v>
       </c>
     </row>
@@ -565,10 +566,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,79 +580,85 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="5" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="12" t="s">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="72.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS (unpublished), Preschool Education, Australia 2015; Australian Demographic Statistics, June 2015; Births, Australia, 2015; Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026; Schools, Australia 2015</t>
+    <t xml:space="preserve">ABS (unpublished), Preschool Education, Australia 2015; Australian Demographic Statistics, June 2015; Births, Australia, 2015; Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026; Schools, Australia 2015; SCRGSP 2018, National Agreement Performance Information 2016-17: National Indigenous Reform Agreement, table NIRA.10.1.</t>
   </si>
 </sst>
 </file>
@@ -191,6 +191,7 @@
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,7 +361,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="1" sqref="B11 L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,7 +654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>29</v>
       </c>

--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -92,10 +92,37 @@
     <t xml:space="preserve">In December 2015, COAG renewed the early childhood education target aiming for 95 per cent of all Indigenous four year-olds enrolled in preschool by 2025. </t>
   </si>
   <si>
-    <t xml:space="preserve">The baseline for this target is 2015. In 2016, 91 per cent of Indigenous children were enrolled in early childhood education in the year before full time school.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2016, the information available suggests that all Indigenous children were enrolled in early childhood education in the year before full time school in Victoria, Western Australia and South Australia. Tasmania and the Australian Capital Territory met the required benchmark of 95 per cent.</t>
+    <t xml:space="preserve">The baseline for this target is 2015. In 2016, 91 per cent of Indigenous children were enrolled in early childhood education in the year before full time school, compared to 87 per cent in the baseline year. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">In 2016, the information available suggests that all Indigenous children were enrolled in early childhood education </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(ECE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in the year before full time school in Victoria, Western Australia and South Australia. Tasmania and the Australian Capital Territory met the required benchmark of 95 per cent.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -104,10 +131,102 @@
     <t xml:space="preserve">Proportions are over 100 per cent but displayed as 100 per cent for the following: In 2016, Indigenous children in Vic (102 per cent); WA (103 per cent); SA (104 per cent). </t>
   </si>
   <si>
-    <t xml:space="preserve">Improved data quality in the 2016 NECECC collection, resulting from revisions to the ABS data collection methodology, mean that the 2016 data are not fully comparable to the 2015 data. Significant changes include: amended to data linkage approach to enhace the accuracy of child counts in NECECC, and an expanded child identification strategy in the Child Care Management System (one of the source datasets) has increased the count of children enrolled in a preschool program, as all children at long day care centres (of the appropriate age) are now recorded as enrolled in a preschool program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preschool enrolment rates reported under the National Partnership on Universal Access to Preschool vary from the NIRA ECE rates. The NIRA and ROGS enrolment rates are based on state-specific Year Before Full-Time School enrolment rates, the NIRA data also prorates Indigenous status not stated.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Improved data quality in the 2016 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">National Early Childhood Education and Care Collection (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NECECC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">collection, resulting from revisions to the ABS data collection methodology, mean that the 2016 data are not fully comparable to the 2015 data. Siginificant changes include: amended to data linkage approach to enha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ce the accuracy of child counts in NECECC, and an expanded child identification strategy in the Child Care Management System (one of the source datasets) has increased the count of children enrolled in a preschool program, as all children at long day care centres (of the appropraite age) are now recorded as enrolled in a preschool program.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Preschool enrolment rates reported under the National Partnership on Universal Access to Preschool vary from the NIRA ECE rates. The NIRA and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Report on Government Services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> enrolment rates are based on state-specific Year Before Full-Time School enrolment rates, the NIRA data also prorates Indigenous status not stated.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
@@ -188,9 +307,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -261,6 +380,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,10 +397,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,7 +460,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -361,7 +480,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="1" sqref="B11 L19"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,7 +699,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -596,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -604,11 +723,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>2016</v>
       </c>
     </row>
@@ -616,20 +735,20 @@
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -637,18 +756,18 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="72.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
         <v>28</v>
@@ -658,7 +777,7 @@
       <c r="A11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">In December 2015, COAG renewed the early childhood education target aiming for 95 per cent of all Indigenous four year-olds enrolled in preschool by 2025. </t>
   </si>
   <si>
-    <t xml:space="preserve">The baseline for this target is 2015. In 2016, 91 per cent of Indigenous children were enrolled in early childhood education in the year before full time school, compared to 87 per cent in the baseline year. </t>
+    <t xml:space="preserve">The baseline for this target is 2015. In 2016, 91 per cent of Indigenous children were enrolled in early childhood education in the year before full time school. </t>
   </si>
   <si>
     <r>
@@ -355,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,10 +373,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,7 +723,7 @@
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>2016</v>
       </c>
     </row>
@@ -735,20 +731,20 @@
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -756,20 +752,20 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -777,7 +773,7 @@
       <c r="A11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
     </row>

--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -176,7 +176,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">collection, resulting from revisions to the ABS data collection methodology, mean that the 2016 data are not fully comparable to the 2015 data. Siginificant changes include: amended to data linkage approach to enha</t>
+      <t xml:space="preserve">collection, resulting from revisions to the ABS data collection methodology, mean that the 2016 data are not fully comparable to the 2015 data. Significant changes include: amended to data linkage approach to enha</t>
     </r>
     <r>
       <rPr>
@@ -684,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
